--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" tabRatio="719" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" tabRatio="719"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="833">
   <si>
     <t>界面字段名</t>
   </si>
@@ -3338,6 +3338,34 @@
   </si>
   <si>
     <t>CYsqtime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号openid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxopenid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>未绑定</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -4724,8 +4752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5053,7 +5081,7 @@
         <v>314</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>276</v>
+        <v>827</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
@@ -5517,7 +5545,7 @@
         <v>279</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>12</v>
+        <v>392</v>
       </c>
       <c r="G49" s="41"/>
     </row>
@@ -5549,10 +5577,27 @@
         <v>329</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>331</v>
+        <v>830</v>
       </c>
       <c r="F51">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>829</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>828</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>831</v>
+      </c>
+      <c r="F52" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6899,7 +6944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="832">
   <si>
     <t>界面字段名</t>
   </si>
@@ -1337,10 +1337,6 @@
   </si>
   <si>
     <t>decimal(18, 2)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>jnxs</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -2589,10 +2585,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>UAid</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar(50)</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -3345,27 +3337,31 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
+    <t>wxopenid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
     <t>nvarchar(100)</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
     <t>nvarchar(200)</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>wxopenid</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>未绑定</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>jnxs</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -4752,8 +4748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4769,7 +4765,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -4803,192 +4799,192 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="C3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D3" t="s">
-        <v>424</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G5" t="s">
         <v>432</v>
-      </c>
-      <c r="B5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C5" t="s">
-        <v>429</v>
-      </c>
-      <c r="D5" t="s">
-        <v>424</v>
-      </c>
-      <c r="G5" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" t="s">
+        <v>423</v>
+      </c>
+      <c r="G6" t="s">
         <v>434</v>
-      </c>
-      <c r="C6" t="s">
-        <v>457</v>
-      </c>
-      <c r="D6" t="s">
-        <v>424</v>
-      </c>
-      <c r="G6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D11" t="s">
+        <v>458</v>
+      </c>
+      <c r="G11" t="s">
         <v>441</v>
-      </c>
-      <c r="C11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D11" t="s">
-        <v>459</v>
-      </c>
-      <c r="G11" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" t="s">
+        <v>451</v>
+      </c>
+      <c r="D12" t="s">
+        <v>457</v>
+      </c>
+      <c r="G12" t="s">
         <v>450</v>
-      </c>
-      <c r="C12" t="s">
-        <v>452</v>
-      </c>
-      <c r="D12" t="s">
-        <v>458</v>
-      </c>
-      <c r="G12" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C13" t="s">
         <v>456</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>459</v>
+      </c>
+      <c r="G13" t="s">
         <v>454</v>
-      </c>
-      <c r="C13" t="s">
-        <v>457</v>
-      </c>
-      <c r="D13" t="s">
-        <v>460</v>
-      </c>
-      <c r="G13" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
@@ -5025,13 +5021,13 @@
         <v>152</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>638</v>
+        <v>421</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>281</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>8</v>
@@ -5047,7 +5043,7 @@
         <v>252</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>10</v>
@@ -5081,7 +5077,7 @@
         <v>314</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
@@ -5098,7 +5094,7 @@
         <v>315</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>19</v>
@@ -5471,7 +5467,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G44" s="41"/>
     </row>
@@ -5545,7 +5541,7 @@
         <v>279</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G49" s="41"/>
     </row>
@@ -5554,13 +5550,13 @@
         <v>326</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5571,13 +5567,13 @@
         <v>327</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>330</v>
+        <v>831</v>
       </c>
       <c r="C51" s="38" t="s">
         <v>329</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F51">
         <v>0.7</v>
@@ -5585,24 +5581,24 @@
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="37" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B52" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="C52" s="38" t="s">
         <v>829</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="D52" s="39" t="s">
         <v>828</v>
       </c>
-      <c r="D52" s="39" t="s">
-        <v>831</v>
-      </c>
       <c r="F52" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="58" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B63" s="58"/>
       <c r="C63" s="58"/>
@@ -5639,10 +5635,10 @@
         <v>152</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D65" s="29" t="s">
         <v>7</v>
@@ -5655,13 +5651,13 @@
     </row>
     <row r="66" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D66" s="29" t="s">
         <v>9</v>
@@ -5669,18 +5665,18 @@
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B67" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="C67" s="28" t="s">
         <v>339</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>340</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>12</v>
@@ -5691,56 +5687,56 @@
     </row>
     <row r="68" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B68" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>344</v>
-      </c>
       <c r="D68" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="7"/>
       <c r="G68" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="7"/>
@@ -5748,49 +5744,49 @@
     </row>
     <row r="71" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G71" s="25"/>
     </row>
     <row r="72" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B73" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C73" s="28" t="s">
         <v>359</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>360</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>9</v>
@@ -5800,18 +5796,18 @@
         <v>0</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>12</v>
@@ -5819,39 +5815,39 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B76" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C76" s="28" t="s">
         <v>371</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>372</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>12</v>
@@ -5859,7 +5855,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="6"/>
       <c r="G76" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -5888,7 +5884,7 @@
     </row>
     <row r="80" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B80" s="58"/>
       <c r="C80" s="58"/>
@@ -5922,10 +5918,10 @@
     </row>
     <row r="82" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C82" s="28" t="s">
         <v>48</v>
@@ -5941,16 +5937,16 @@
     </row>
     <row r="83" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C83" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
@@ -5958,13 +5954,13 @@
     </row>
     <row r="84" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D84" s="29" t="s">
         <v>135</v>
@@ -5975,35 +5971,35 @@
     </row>
     <row r="85" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="7"/>
@@ -6011,13 +6007,13 @@
     </row>
     <row r="87" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>19</v>
@@ -6028,13 +6024,13 @@
     </row>
     <row r="88" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>19</v>
@@ -6043,16 +6039,16 @@
     </row>
     <row r="89" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C89" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="7"/>
@@ -6060,47 +6056,47 @@
     </row>
     <row r="90" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C90" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>400</v>
-      </c>
       <c r="F90" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D91" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F91" t="s">
         <v>401</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B94" s="58"/>
       <c r="C94" s="58"/>
@@ -6134,13 +6130,13 @@
     </row>
     <row r="96" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A96" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D96" s="29" t="s">
         <v>7</v>
@@ -6153,13 +6149,13 @@
     </row>
     <row r="97" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A97" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D97" s="29" t="s">
         <v>9</v>
@@ -6170,16 +6166,16 @@
     </row>
     <row r="98" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A98" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E98" s="29"/>
       <c r="F98" s="29"/>
@@ -6187,13 +6183,13 @@
     </row>
     <row r="99" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D99" s="29" t="s">
         <v>135</v>
@@ -6204,10 +6200,10 @@
     </row>
     <row r="100" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>11</v>
@@ -6217,19 +6213,19 @@
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>9</v>
@@ -6240,22 +6236,22 @@
     </row>
     <row r="102" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="D102" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="B102" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="C102" s="28" t="s">
+      <c r="F102" t="s">
         <v>480</v>
       </c>
-      <c r="D102" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="G102" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -6291,7 +6287,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -6325,13 +6321,13 @@
     </row>
     <row r="3" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>9</v>
@@ -6344,16 +6340,16 @@
     </row>
     <row r="4" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
@@ -6361,13 +6357,13 @@
     </row>
     <row r="5" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>9</v>
@@ -6378,16 +6374,16 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="7"/>
@@ -6395,16 +6391,16 @@
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="7"/>
@@ -6412,10 +6408,10 @@
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>36</v>
@@ -6429,46 +6425,46 @@
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>24</v>
@@ -6482,16 +6478,16 @@
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>506</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>507</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>276</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
@@ -6499,16 +6495,16 @@
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="6"/>
@@ -6516,27 +6512,27 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>510</v>
-      </c>
       <c r="C14" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>513</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
@@ -6544,53 +6540,53 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>570</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="F18" t="s">
         <v>522</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="F18" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6598,10 +6594,10 @@
         <v>166</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
@@ -6609,10 +6605,10 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>527</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>528</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>24</v>
@@ -6623,7 +6619,7 @@
     </row>
     <row r="24" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="58" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
@@ -6657,13 +6653,13 @@
     </row>
     <row r="26" spans="1:7" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>9</v>
@@ -6676,10 +6672,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
@@ -6690,243 +6686,243 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C29" t="s">
+        <v>533</v>
+      </c>
+      <c r="D29" s="29" t="s">
         <v>534</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C31" t="s">
         <v>283</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C35" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B36" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C37" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B39" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C39" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C40" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B41" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C41" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B42" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B43" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B44" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -6958,7 +6954,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -6992,13 +6988,13 @@
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="45" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>9</v>
@@ -7011,16 +7007,16 @@
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="45" t="s">
+        <v>599</v>
+      </c>
+      <c r="B4" s="45" t="s">
         <v>600</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>601</v>
-      </c>
       <c r="C4" s="46" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
@@ -7028,13 +7024,13 @@
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>9</v>
@@ -7045,13 +7041,13 @@
     </row>
     <row r="6" spans="1:7" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>9</v>
@@ -7062,13 +7058,13 @@
     </row>
     <row r="7" spans="1:7" s="49" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>9</v>
@@ -7076,83 +7072,83 @@
     </row>
     <row r="8" spans="1:7" s="49" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>605</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>606</v>
-      </c>
       <c r="C8" s="46" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="45" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C9" s="46" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="45" t="s">
+        <v>608</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>674</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>609</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>676</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>610</v>
-      </c>
       <c r="D10" s="47" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="45" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="45" t="s">
+        <v>613</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>614</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>615</v>
-      </c>
       <c r="C12" s="46" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="45" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>9</v>
@@ -7160,19 +7156,19 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="45" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -7180,30 +7176,30 @@
     </row>
     <row r="17" spans="1:7" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="50" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>119</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="50" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>328</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F18" s="53">
         <v>0</v>
@@ -7211,84 +7207,84 @@
     </row>
     <row r="19" spans="1:7" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="50" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="50" t="s">
+        <v>621</v>
+      </c>
+      <c r="B22" s="50" t="s">
         <v>622</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>623</v>
-      </c>
       <c r="C22" s="51" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F22" s="53" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="50" t="s">
+        <v>624</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>625</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>626</v>
       </c>
       <c r="C23" s="51" t="s">
         <v>97</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F23" s="53">
         <v>0</v>
@@ -7296,75 +7292,75 @@
     </row>
     <row r="24" spans="1:7" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="50" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C24" s="51" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="50" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C25" s="51" t="s">
         <v>283</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F25" s="53" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="57" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="54" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D28" s="56" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G28" s="57" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="57" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="54" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="57" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="54" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C30" s="55" t="s">
         <v>283</v>
@@ -7373,18 +7369,18 @@
         <v>12</v>
       </c>
       <c r="F30" s="57" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="57" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="54" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D31" s="56" t="s">
         <v>12</v>
@@ -7392,7 +7388,7 @@
     </row>
     <row r="35" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="58" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B35" s="58"/>
       <c r="C35" s="58"/>
@@ -7426,83 +7422,83 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B37" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C37" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D37" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B38" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D38" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>636</v>
+      </c>
+      <c r="B39" t="s">
+        <v>679</v>
+      </c>
+      <c r="C39" t="s">
         <v>637</v>
       </c>
-      <c r="B39" t="s">
-        <v>681</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>639</v>
-      </c>
-      <c r="D39" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B40" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C40" t="s">
         <v>283</v>
       </c>
       <c r="D40" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F40" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B41" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C41" t="s">
         <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B42" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C42" t="s">
         <v>119</v>
@@ -7513,33 +7509,33 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B43" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C43" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F43" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G43" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B44" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C44" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -7547,27 +7543,27 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C45" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F45" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G45" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="58" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B50" s="58"/>
       <c r="C50" s="58"/>
@@ -7601,13 +7597,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B52" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C52" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -7615,30 +7611,30 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B53" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C53" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B54" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C54" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -7646,30 +7642,30 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B55" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C55" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B56" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C56" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -7677,30 +7673,30 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B57" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C57" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B58" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C58" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -7708,13 +7704,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B59" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C59" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -7722,30 +7718,30 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B60" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C60" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B61" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C61" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -7753,41 +7749,41 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B62" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C62" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>730</v>
+      </c>
+      <c r="B63" t="s">
+        <v>751</v>
+      </c>
+      <c r="C63" t="s">
         <v>732</v>
-      </c>
-      <c r="B63" t="s">
-        <v>753</v>
-      </c>
-      <c r="C63" t="s">
-        <v>734</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="58" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B65" s="58"/>
       <c r="C65" s="58"/>
@@ -7821,13 +7817,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B67" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C67" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -7835,13 +7831,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B68" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C68" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -7849,13 +7845,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B69" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C69" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -7863,13 +7859,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>719</v>
+      </c>
+      <c r="B70" t="s">
+        <v>757</v>
+      </c>
+      <c r="C70" t="s">
         <v>721</v>
-      </c>
-      <c r="B70" t="s">
-        <v>759</v>
-      </c>
-      <c r="C70" t="s">
-        <v>723</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -7877,13 +7873,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
+        <v>720</v>
+      </c>
+      <c r="B71" t="s">
+        <v>758</v>
+      </c>
+      <c r="C71" t="s">
         <v>722</v>
-      </c>
-      <c r="B71" t="s">
-        <v>760</v>
-      </c>
-      <c r="C71" t="s">
-        <v>724</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -7891,13 +7887,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B72" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C72" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -7908,24 +7904,24 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B73" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C73" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D73" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F73" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="58" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B77" s="58"/>
       <c r="C77" s="58"/>
@@ -7959,162 +7955,162 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B79" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C79" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B80" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C80" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B81" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C81" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B82" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C82" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G82" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B83" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C83" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B84" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C84" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B85" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C85" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B86" t="s">
+        <v>802</v>
+      </c>
+      <c r="C86" t="s">
         <v>804</v>
-      </c>
-      <c r="C86" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B87" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C87" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G87" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B88" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C88" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B89" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C89" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B90" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C90" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F90" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
+        <v>773</v>
+      </c>
+      <c r="B91" t="s">
         <v>775</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>777</v>
       </c>
-      <c r="C91" t="s">
-        <v>779</v>
-      </c>
       <c r="F91" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="58" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B95" s="58"/>
       <c r="C95" s="58"/>
@@ -8148,74 +8144,74 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B97" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C97" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B98" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C98" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B99" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C99" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B100" t="s">
+        <v>794</v>
+      </c>
+      <c r="C100" t="s">
         <v>796</v>
-      </c>
-      <c r="C100" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B101" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C101" t="s">
+        <v>807</v>
+      </c>
+      <c r="F101" t="s">
         <v>809</v>
-      </c>
-      <c r="F101" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
+        <v>793</v>
+      </c>
+      <c r="B102" t="s">
         <v>795</v>
       </c>
-      <c r="B102" t="s">
-        <v>797</v>
-      </c>
       <c r="C102" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G102" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
